--- a/271025_Results_Med/output/m2/27102025_mod2_by_travel_mode.xlsx
+++ b/271025_Results_Med/output/m2/27102025_mod2_by_travel_mode.xlsx
@@ -1992,32 +1992,32 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Menos de 1000 cc</t>
+          <t>Eléctrico / No aplica</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2 (10.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>18 (100.0%)</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>86 (100.0%)</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>47 (100.0%)</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>226 (100.0%)</t>
         </is>
       </c>
       <c r="I37">
@@ -2037,32 +2037,32 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>No aplica</t>
+          <t>Menos de 1000 cc</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>2 (10.0%)</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>18 (100.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>86 (100.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>47 (100.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>226 (100.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="I38">
@@ -2262,32 +2262,32 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Más de 250 cc</t>
+          <t>Eléctrico / No aplica</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>21 (100.0%)</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>18 (100.0%)</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>4 (4.7%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>47 (100.0%)</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>226 (100.0%)</t>
         </is>
       </c>
       <c r="I43">
@@ -2307,7 +2307,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Menos de 125 cc</t>
+          <t>Más de 250 cc</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2322,7 +2322,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>13 (15.1%)</t>
+          <t>4 (4.7%)</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -2352,32 +2352,32 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>No aplica</t>
+          <t>Menos de 125 cc</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>21 (100.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>18 (100.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>13 (15.1%)</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>47 (100.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>226 (100.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="I45">

--- a/271025_Results_Med/output/m2/27102025_mod2_by_travel_mode.xlsx
+++ b/271025_Results_Med/output/m2/27102025_mod2_by_travel_mode.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I84"/>
+  <dimension ref="A1:I88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1817,7 +1817,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>9 (45.0%)</t>
+          <t>9 (42.9%)</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1862,7 +1862,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>4 (20.0%)</t>
+          <t>4 (19.0%)</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>1 (5.0%)</t>
+          <t>1 (4.8%)</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1952,7 +1952,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>3 (15.0%)</t>
+          <t>3 (14.3%)</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1992,32 +1992,32 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Eléctrico / No aplica</t>
+          <t>3000 cc o más</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (4.8%)</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>18 (100.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>86 (100.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>47 (100.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>226 (100.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="I37">
@@ -2037,32 +2037,32 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Menos de 1000 cc</t>
+          <t>Eléctrico / No aplica</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2 (10.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>18 (100.0%)</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>86 (100.0%)</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>47 (100.0%)</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>226 (100.0%)</t>
         </is>
       </c>
       <c r="I38">
@@ -2082,12 +2082,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>No sabe / No responde</t>
+          <t>Menos de 1000 cc</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>1 (5.0%)</t>
+          <t>2 (9.5%)</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2117,22 +2117,22 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>cilindraje_moto_agregado</t>
+          <t>cilindraje_auto_agregado</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Cilindraje de motocicletas (agregado)</t>
+          <t>Cilindraje de automóviles (agregado)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>125 cc</t>
+          <t>No sabe / No responde</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (4.8%)</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2142,7 +2142,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>33 (38.4%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -2172,7 +2172,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>150 - 250 cc</t>
+          <t>125 cc</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2187,7 +2187,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>17 (19.8%)</t>
+          <t>33 (38.4%)</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -2217,7 +2217,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>150 cc</t>
+          <t>150 - 250 cc</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2232,7 +2232,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>16 (18.6%)</t>
+          <t>17 (19.8%)</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -2262,32 +2262,32 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Eléctrico / No aplica</t>
+          <t>150 cc</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>21 (100.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>18 (100.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>16 (18.6%)</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>47 (100.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>226 (100.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="I43">
@@ -2307,32 +2307,32 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Más de 250 cc</t>
+          <t>Eléctrico / No aplica</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>21 (100.0%)</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>18 (100.0%)</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>4 (4.7%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>47 (100.0%)</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>226 (100.0%)</t>
         </is>
       </c>
       <c r="I44">
@@ -2352,7 +2352,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Menos de 125 cc</t>
+          <t>Más de 250 cc</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2367,7 +2367,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>13 (15.1%)</t>
+          <t>4 (4.7%)</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -2397,7 +2397,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>No sabe / No responde</t>
+          <t>Menos de 125 cc</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2412,7 +2412,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>3 (3.5%)</t>
+          <t>13 (15.1%)</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -2432,43 +2432,46 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>cilindraje_camion_agregado</t>
+          <t>cilindraje_moto_agregado</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Cilindraje de camiones (futuro)</t>
+          <t>Cilindraje de motocicletas (agregado)</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>No aplica</t>
+          <t>No sabe / No responde</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>21 (100.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>18 (100.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>86 (100.0%)</t>
+          <t>3 (3.5%)</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>47 (100.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>226 (100.0%)</t>
-        </is>
+          <t>0 (0.0%)</t>
+        </is>
+      </c>
+      <c r="I47">
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -3539,12 +3542,12 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>7 (15.6%)</t>
+          <t>7 (14.9%)</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>34 (15.2%)</t>
+          <t>34 (15.0%)</t>
         </is>
       </c>
       <c r="I71">
@@ -3564,7 +3567,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Cuidado y familia (centro educativo, niños/as o jóvenes)</t>
+          <t>Cuidado y familia (escuela, niñas/os)</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -3609,32 +3612,32 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Estudio</t>
+          <t>Cuidado y familia (persona con discapacidad)</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>1 (4.8%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>4 (22.2%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>9 (10.5%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>1 (2.2%)</t>
+          <t>1 (2.1%)</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>18 (8.1%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="I73">
@@ -3654,17 +3657,17 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Otro</t>
+          <t>Cuidado y familia (persona enferma)</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>1 (4.8%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>1 (5.6%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -3674,12 +3677,12 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>1 (2.2%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (0.4%)</t>
         </is>
       </c>
       <c r="I74">
@@ -3699,32 +3702,32 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Recreación, salud y actividades personales</t>
+          <t>Cuidado y familia (recreación, niñas/os)</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>1 (4.8%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>3 (16.7%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2 (2.3%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>20 (44.4%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>64 (28.7%)</t>
+          <t>1 (0.4%)</t>
         </is>
       </c>
       <c r="I75">
@@ -3744,32 +3747,32 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Trabajo</t>
+          <t>Cuidado y familia (salud, niñas/os)</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>17 (81.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>7 (38.9%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>58 (67.4%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>12 (26.7%)</t>
+          <t>1 (2.1%)</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>100 (44.8%)</t>
+          <t>1 (0.4%)</t>
         </is>
       </c>
       <c r="I76">
@@ -3789,32 +3792,32 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Visitas sociales</t>
+          <t>Estudio</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (4.8%)</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>4 (22.2%)</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>6 (7.0%)</t>
+          <t>9 (10.5%)</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>4 (8.9%)</t>
+          <t>1 (2.1%)</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>6 (2.7%)</t>
+          <t>18 (8.0%)</t>
         </is>
       </c>
       <c r="I77">
@@ -3824,158 +3827,338 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>p1edad</t>
+          <t>p23_agregado</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>¿Cuántos años cumplidos tiene?</t>
+          <t>Propósito principal del viaje (armonizado y detallado con grupos de cuidado: niños/as o jóvenes)</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Otro</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>39.0 (31.0–54.0)</t>
+          <t>1 (4.8%)</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>50.5 (25.8–58.0)</t>
+          <t>1 (5.6%)</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>35.5 (26.2–44.0)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>54.0 (39.0–66.0)</t>
+          <t>1 (2.1%)</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>44.0 (29.0–60.0)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="I78">
-        <v>0.0001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>p18</t>
+          <t>p23_agregado</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Tiempo total de viaje (minutos)</t>
+          <t>Propósito principal del viaje (armonizado y detallado con grupos de cuidado: niños/as o jóvenes)</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Recreación, salud y actividades personales</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>30.0 (15.0–40.0)</t>
+          <t>1 (4.8%)</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>20.0 (11.2–37.5)</t>
+          <t>3 (16.7%)</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>27.5 (15.0–35.0)</t>
+          <t>2 (2.3%)</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>20.0 (15.0–35.0)</t>
+          <t>20 (42.6%)</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>64 (28.3%)</t>
         </is>
       </c>
       <c r="I79">
-        <v>0.5963000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>p18_p1</t>
+          <t>p23_agregado</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Minutos caminando hasta el modo de transporte</t>
+          <t>Propósito principal del viaje (armonizado y detallado con grupos de cuidado: niños/as o jóvenes)</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Trabajo</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>17 (81.0%)</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>7 (38.9%)</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>58 (67.4%)</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>12 (25.5%)</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>5.0 (5.0–15.0)</t>
-        </is>
+          <t>100 (44.2%)</t>
+        </is>
+      </c>
+      <c r="I80">
+        <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>p18_p2</t>
+          <t>p23_agregado</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Minutos de espera del transporte</t>
+          <t>Propósito principal del viaje (armonizado y detallado con grupos de cuidado: niños/as o jóvenes)</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Visitas sociales</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0 (0.0%)</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>0 (0.0%)</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>6 (7.0%)</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>4 (8.5%)</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>5.0 (5.0–10.0)</t>
-        </is>
+          <t>6 (2.7%)</t>
+        </is>
+      </c>
+      <c r="I81">
+        <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>p18_p3</t>
+          <t>p1edad</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Minutos de trayecto en transporte (arranca -&gt; baja)</t>
+          <t>¿Cuántos años cumplidos tiene?</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>39.0 (31.0–54.0)</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>50.5 (25.8–58.0)</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>35.5 (26.2–44.0)</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>54.0 (39.0–66.0)</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>30.0 (20.0–40.0)</t>
-        </is>
+          <t>44.0 (29.0–60.0)</t>
+        </is>
+      </c>
+      <c r="I82">
+        <v>0.0001</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>p18_p4</t>
+          <t>p18</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Minutos caminando después del descenso</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>10.0 (5.0–15.0)</t>
-        </is>
+          <t>Tiempo total de viaje (minutos)</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>30.0 (15.0–40.0)</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>20.0 (11.2–37.5)</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>27.5 (15.0–35.0)</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>20.0 (15.0–35.0)</t>
+        </is>
+      </c>
+      <c r="I83">
+        <v>0.5963000000000001</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
+          <t>p18_p1</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Minutos caminando hasta el modo de transporte</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>5.0 (5.0–15.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>p18_p2</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Minutos de espera del transporte</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>5.0 (5.0–10.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>p18_p3</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Minutos de trayecto en transporte (arranca -&gt; baja)</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>30.0 (20.0–40.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>p18_p4</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Minutos caminando después del descenso</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>10.0 (5.0–15.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
           <t>p18_c1</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B88" t="inlineStr">
         <is>
           <t>Minutos de la caminata a su destino</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>20.0 (11.2–27.5)</t>
         </is>
